--- a/3 Random Variables/Homework/JulyMVSDHW.xlsx
+++ b/3 Random Variables/Homework/JulyMVSDHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\3 Random Variables\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Homework 3_2</t>
   </si>
@@ -97,11 +97,26 @@
       <t>Suppose you bet on an odd number coming up in roulette. If an odd number comes up, you win $1, and if an odd number does not come up, you lose $1. Find the mean and standard deviation of your profit.</t>
     </r>
   </si>
+  <si>
+    <t>Mean=</t>
+  </si>
+  <si>
+    <t>Varience=</t>
+  </si>
+  <si>
+    <t>SD=</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -149,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,43 +453,587 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="78.81640625" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="55" customHeight="1">
+    <row r="3" spans="1:8" ht="54.95" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="55" customHeight="1">
+    <row r="4" spans="1:8" ht="54.95" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="55" customHeight="1">
+    <row r="5" spans="1:8" ht="54.95" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E7">
+        <f>(C7-$D$7)^2</f>
+        <v>6.9252077562326859E-4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D44" si="0">1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E43" si="1">(C8-$D$7)^2</f>
+        <v>6.9252077562326859E-4</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <f>37/38</f>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.94806094182825495</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <f>1/38</f>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.8954293628808863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>8.8427977839335181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>15.79016620498615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>24.737534626038784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>35.684903047091417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>48.632271468144047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>63.579639889196677</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>80.5270083102493</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>99.47437673130193</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>120.42174515235456</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>143.36911357340719</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>168.31648199445982</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>195.26385041551245</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>224.21121883656508</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>255.15858725761771</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>288.10595567867034</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>323.05332409972294</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>360.0006925207756</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>398.9480609418282</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>439.89542936288086</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>482.84279778393346</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>527.79016620498612</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>574.73753462603872</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>623.68490304709132</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>674.63227146814404</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>727.57963988919664</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>782.52700831024924</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>839.47437673130185</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>898.42174515235456</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>959.36911357340716</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1022.3164819944598</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1087.2638504155125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1154.211218836565</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1223.1585872576177</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="E44">
+        <f>(C44-$D$7)^2</f>
+        <v>1294.1059556786704</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <f>SUMPRODUCT(C7:C44,D7:D44)</f>
+        <v>17.526315789473685</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f>SUMPRODUCT(D7:D44,E7:E44)</f>
+        <v>425.55193905817174</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <f>SQRT(D47)</f>
+        <v>20.628910273162074</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>